--- a/tokped_9_09_17.xlsx
+++ b/tokped_9_09_17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Scripts\project_scraping_blibli-Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58834B1-996E-4AB8-A10A-D2CCDF854EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88FEC95-ACAC-48FF-964D-85E391B56B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2295,6 +2295,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2642,7 +2643,7 @@
   <dimension ref="A1:C748"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4313,7 +4314,7 @@
         <v>150</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -6975,7 +6976,7 @@
         <v>392</v>
       </c>
       <c r="C394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
@@ -7437,7 +7438,7 @@
         <v>434</v>
       </c>
       <c r="C436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
@@ -10308,7 +10309,7 @@
         <v>695</v>
       </c>
       <c r="C697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.35">
